--- a/server/src/main/java/net/guides/springboot2/crud/templates/Centralizator pe varsta complet.xlsx
+++ b/server/src/main/java/net/guides/springboot2/crud/templates/Centralizator pe varsta complet.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>Centralizator pe varsta</t>
   </si>
@@ -36,15 +36,6 @@
     <t>Impozit</t>
   </si>
   <si>
-    <t xml:space="preserve"> 0 - 20</t>
-  </si>
-  <si>
-    <t>20 - 30</t>
-  </si>
-  <si>
-    <t>30 - 40</t>
-  </si>
-  <si>
     <t>[den firma]</t>
   </si>
   <si>
@@ -60,9 +51,6 @@
     <t>luna [luna] anul [an]</t>
   </si>
   <si>
-    <t>40 - 50</t>
-  </si>
-  <si>
     <t>Venit brut mediu</t>
   </si>
   <si>
@@ -73,6 +61,15 @@
   </si>
   <si>
     <t>[localitate/judet]</t>
+  </si>
+  <si>
+    <t>Nume</t>
+  </si>
+  <si>
+    <t>Prenume</t>
+  </si>
+  <si>
+    <t>CNP</t>
   </si>
 </sst>
 </file>
@@ -162,7 +159,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -174,20 +171,17 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -504,69 +498,73 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:J15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.109375"/>
-    <col min="2" max="2" width="6.88671875"/>
-    <col min="3" max="3" width="11.109375"/>
-    <col min="4" max="4" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.88671875"/>
-    <col min="8" max="9" width="9.5546875"/>
+    <col min="2" max="2" width="6.88671875" customWidth="1"/>
+    <col min="3" max="4" width="15.5546875" customWidth="1"/>
+    <col min="5" max="5" width="6.88671875" customWidth="1"/>
+    <col min="6" max="6" width="11.109375"/>
+    <col min="7" max="7" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.88671875"/>
+    <col min="11" max="12" width="9.5546875"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+    <row r="6" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="D6" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+    </row>
+    <row r="7" spans="1:10" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="D7" s="8" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="C6" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-    </row>
-    <row r="7" spans="1:7" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="C7" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
+      <c r="E7" s="8"/>
       <c r="F7" s="8"/>
-    </row>
-    <row r="8" spans="1:7" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F8" s="9"/>
-    </row>
-    <row r="9" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:7" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I7" s="5"/>
+    </row>
+    <row r="8" spans="1:10" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I8" s="6"/>
+    </row>
+    <row r="9" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:10" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>1</v>
       </c>
@@ -574,118 +572,39 @@
         <v>2</v>
       </c>
       <c r="C10" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F10" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D10" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>16</v>
-      </c>
       <c r="G10" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="J10" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B11" s="5">
-        <v>0</v>
-      </c>
-      <c r="C11" s="5">
-        <v>0</v>
-      </c>
-      <c r="D11" s="5">
-        <v>0</v>
-      </c>
-      <c r="E11" s="5">
-        <v>0</v>
-      </c>
-      <c r="F11" s="5">
-        <v>0</v>
-      </c>
-      <c r="G11" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B12" s="5">
-        <v>0</v>
-      </c>
-      <c r="C12" s="5">
-        <v>0</v>
-      </c>
-      <c r="D12" s="5">
-        <v>0</v>
-      </c>
-      <c r="E12" s="5">
-        <v>0</v>
-      </c>
-      <c r="F12" s="5">
-        <v>0</v>
-      </c>
-      <c r="G12" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B13" s="5">
-        <v>0</v>
-      </c>
-      <c r="C13" s="5">
-        <v>0</v>
-      </c>
-      <c r="D13" s="5">
-        <v>0</v>
-      </c>
-      <c r="E13" s="5">
-        <v>0</v>
-      </c>
-      <c r="F13" s="5">
-        <v>0</v>
-      </c>
-      <c r="G13" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" s="5">
-        <v>0</v>
-      </c>
-      <c r="C14" s="5">
-        <v>0</v>
-      </c>
-      <c r="D14" s="5">
-        <v>0</v>
-      </c>
-      <c r="E14" s="5">
-        <v>0</v>
-      </c>
-      <c r="F14" s="5">
-        <v>0</v>
-      </c>
-      <c r="G14" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:10" ht="12.9" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:10" ht="12.9" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="D7:F7"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait"/>
